--- a/data/134/DEUSTATIS/old/First registrations and changes in ownership of motor vehicles and trailers.xlsx
+++ b/data/134/DEUSTATIS/old/First registrations and changes in ownership of motor vehicles and trailers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="93">
   <si>
     <t>First registrations and changes in ownership of motor
 vehicles and trailers: Germany, months, motor vehicle types</t>
@@ -293,7 +293,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:38:38</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:36:55</t>
   </si>
 </sst>
 </file>
@@ -17418,14 +17418,14 @@
       <c r="AAD6" t="n" s="10">
         <v>23955.0</v>
       </c>
-      <c r="AAE6" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF6" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG6" t="s" s="10">
-        <v>79</v>
+      <c r="AAE6" t="n" s="10">
+        <v>19309.0</v>
+      </c>
+      <c r="AAF6" t="n" s="10">
+        <v>15708.0</v>
+      </c>
+      <c r="AAG6" t="n" s="10">
+        <v>10595.0</v>
       </c>
       <c r="AAH6" t="s" s="10">
         <v>79</v>
@@ -19550,14 +19550,14 @@
       <c r="AAD7" t="n" s="10">
         <v>55171.0</v>
       </c>
-      <c r="AAE7" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF7" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG7" t="s" s="10">
-        <v>79</v>
+      <c r="AAE7" t="n" s="10">
+        <v>48643.0</v>
+      </c>
+      <c r="AAF7" t="n" s="10">
+        <v>42999.0</v>
+      </c>
+      <c r="AAG7" t="n" s="10">
+        <v>29558.0</v>
       </c>
       <c r="AAH7" t="s" s="10">
         <v>79</v>
@@ -21685,14 +21685,14 @@
       <c r="AAD8" t="n" s="10">
         <v>236393.0</v>
       </c>
-      <c r="AAE8" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF8" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG8" t="s" s="10">
-        <v>79</v>
+      <c r="AAE8" t="n" s="10">
+        <v>193307.0</v>
+      </c>
+      <c r="AAF8" t="n" s="10">
+        <v>196972.0</v>
+      </c>
+      <c r="AAG8" t="n" s="10">
+        <v>178683.0</v>
       </c>
       <c r="AAH8" t="s" s="10">
         <v>79</v>
@@ -23817,14 +23817,14 @@
       <c r="AAD9" t="n" s="10">
         <v>619633.0</v>
       </c>
-      <c r="AAE9" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF9" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG9" t="s" s="10">
-        <v>79</v>
+      <c r="AAE9" t="n" s="10">
+        <v>579443.0</v>
+      </c>
+      <c r="AAF9" t="n" s="10">
+        <v>584562.0</v>
+      </c>
+      <c r="AAG9" t="n" s="10">
+        <v>546689.0</v>
       </c>
       <c r="AAH9" t="s" s="10">
         <v>79</v>
@@ -25953,13 +25953,13 @@
         <v>82</v>
       </c>
       <c r="AAE10" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AAF10" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AAG10" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AAH10" t="s" s="10">
         <v>79</v>
@@ -28085,13 +28085,13 @@
         <v>82</v>
       </c>
       <c r="AAE11" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AAF11" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AAG11" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AAH11" t="s" s="10">
         <v>79</v>
@@ -30219,14 +30219,14 @@
       <c r="AAD12" t="n" s="10">
         <v>23777.0</v>
       </c>
-      <c r="AAE12" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF12" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG12" t="s" s="10">
-        <v>79</v>
+      <c r="AAE12" t="n" s="10">
+        <v>21787.0</v>
+      </c>
+      <c r="AAF12" t="n" s="10">
+        <v>21883.0</v>
+      </c>
+      <c r="AAG12" t="n" s="10">
+        <v>22982.0</v>
       </c>
       <c r="AAH12" t="s" s="10">
         <v>79</v>
@@ -32351,14 +32351,14 @@
       <c r="AAD13" t="n" s="10">
         <v>35106.0</v>
       </c>
-      <c r="AAE13" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF13" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG13" t="s" s="10">
-        <v>79</v>
+      <c r="AAE13" t="n" s="10">
+        <v>31989.0</v>
+      </c>
+      <c r="AAF13" t="n" s="10">
+        <v>34634.0</v>
+      </c>
+      <c r="AAG13" t="n" s="10">
+        <v>32579.0</v>
       </c>
       <c r="AAH13" t="s" s="10">
         <v>79</v>
@@ -34486,14 +34486,14 @@
       <c r="AAD14" t="n" s="10">
         <v>569.0</v>
       </c>
-      <c r="AAE14" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF14" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG14" t="s" s="10">
-        <v>79</v>
+      <c r="AAE14" t="n" s="10">
+        <v>515.0</v>
+      </c>
+      <c r="AAF14" t="n" s="10">
+        <v>423.0</v>
+      </c>
+      <c r="AAG14" t="n" s="10">
+        <v>459.0</v>
       </c>
       <c r="AAH14" t="s" s="10">
         <v>79</v>
@@ -36618,14 +36618,14 @@
       <c r="AAD15" t="n" s="10">
         <v>438.0</v>
       </c>
-      <c r="AAE15" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF15" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG15" t="s" s="10">
-        <v>79</v>
+      <c r="AAE15" t="n" s="10">
+        <v>680.0</v>
+      </c>
+      <c r="AAF15" t="n" s="10">
+        <v>477.0</v>
+      </c>
+      <c r="AAG15" t="n" s="10">
+        <v>400.0</v>
       </c>
       <c r="AAH15" t="s" s="10">
         <v>79</v>
@@ -38753,14 +38753,14 @@
       <c r="AAD16" t="n" s="10">
         <v>7764.0</v>
       </c>
-      <c r="AAE16" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF16" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG16" t="s" s="10">
-        <v>79</v>
+      <c r="AAE16" t="n" s="10">
+        <v>6570.0</v>
+      </c>
+      <c r="AAF16" t="n" s="10">
+        <v>6546.0</v>
+      </c>
+      <c r="AAG16" t="n" s="10">
+        <v>6923.0</v>
       </c>
       <c r="AAH16" t="s" s="10">
         <v>79</v>
@@ -40885,14 +40885,14 @@
       <c r="AAD17" t="n" s="10">
         <v>12135.0</v>
       </c>
-      <c r="AAE17" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF17" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG17" t="s" s="10">
-        <v>79</v>
+      <c r="AAE17" t="n" s="10">
+        <v>10723.0</v>
+      </c>
+      <c r="AAF17" t="n" s="10">
+        <v>10775.0</v>
+      </c>
+      <c r="AAG17" t="n" s="10">
+        <v>9568.0</v>
       </c>
       <c r="AAH17" t="s" s="10">
         <v>79</v>
@@ -43020,14 +43020,14 @@
       <c r="AAD18" t="n" s="10">
         <v>2212.0</v>
       </c>
-      <c r="AAE18" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF18" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG18" t="s" s="10">
-        <v>79</v>
+      <c r="AAE18" t="n" s="10">
+        <v>1593.0</v>
+      </c>
+      <c r="AAF18" t="n" s="10">
+        <v>1669.0</v>
+      </c>
+      <c r="AAG18" t="n" s="10">
+        <v>1609.0</v>
       </c>
       <c r="AAH18" t="s" s="10">
         <v>79</v>
@@ -45152,14 +45152,14 @@
       <c r="AAD19" t="n" s="10">
         <v>1656.0</v>
       </c>
-      <c r="AAE19" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF19" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG19" t="s" s="10">
-        <v>79</v>
+      <c r="AAE19" t="n" s="10">
+        <v>1517.0</v>
+      </c>
+      <c r="AAF19" t="n" s="10">
+        <v>1517.0</v>
+      </c>
+      <c r="AAG19" t="n" s="10">
+        <v>1321.0</v>
       </c>
       <c r="AAH19" t="s" s="10">
         <v>79</v>
@@ -47287,14 +47287,14 @@
       <c r="AAD20" t="n" s="10">
         <v>34028.0</v>
       </c>
-      <c r="AAE20" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF20" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG20" t="s" s="10">
-        <v>79</v>
+      <c r="AAE20" t="n" s="10">
+        <v>27805.0</v>
+      </c>
+      <c r="AAF20" t="n" s="10">
+        <v>28479.0</v>
+      </c>
+      <c r="AAG20" t="n" s="10">
+        <v>25284.0</v>
       </c>
       <c r="AAH20" t="s" s="10">
         <v>79</v>
@@ -49419,14 +49419,14 @@
       <c r="AAD21" t="n" s="10">
         <v>42730.0</v>
       </c>
-      <c r="AAE21" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAF21" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAG21" t="s" s="10">
-        <v>79</v>
+      <c r="AAE21" t="n" s="10">
+        <v>39557.0</v>
+      </c>
+      <c r="AAF21" t="n" s="10">
+        <v>38117.0</v>
+      </c>
+      <c r="AAG21" t="n" s="10">
+        <v>33832.0</v>
       </c>
       <c r="AAH21" t="s" s="10">
         <v>79</v>
@@ -49524,7 +49524,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:38:44&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:37:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>